--- a/プロジェクト参入前チェックリスト.xlsx
+++ b/プロジェクト参入前チェックリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78301904-E06A-460B-80E1-648E3499C99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAA461E-BCCC-47BC-B8E1-C307126FD13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" activeTab="1" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト参入前" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="リンク作成" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">セットアップ事項!$A$1:$E$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">セットアップ事項!$A$1:$E$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">プロジェクト参入前!$B$2:$G$58</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">リンク作成!$A$2:$J$38</definedName>
   </definedNames>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="275">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -1446,6 +1446,27 @@
     </rPh>
     <rPh sb="4" eb="7">
       <t>ツウチショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Linux環境構築</t>
+    <rPh sb="5" eb="7">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>.vim</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>設定ファイル（.vimrc / bashrc / .gdbinit / .inputrc）</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1757,23 +1778,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -1942,13 +1946,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1958,6 +1955,13 @@
         <top style="thin">
           <color rgb="FF000000"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -2004,6 +2008,23 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2181,29 +2202,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB9C080C-16AB-477C-B8B1-DFF22A258005}" name="テーブル22" displayName="テーブル22" ref="B2:G58" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15" headerRowCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB9C080C-16AB-477C-B8B1-DFF22A258005}" name="テーブル22" displayName="テーブル22" ref="B2:G58" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24" headerRowCellStyle="標準 2">
   <autoFilter ref="B2:G58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{9BCD8C79-75B0-46CB-81EA-08210BDEDA51}" name="タイミング" dataDxfId="14" dataCellStyle="標準 2"/>
-    <tableColumn id="1" xr3:uid="{71C1CE89-BF1F-4D36-A869-3F9289BC65D3}" name="カテゴリ2" dataDxfId="13" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{A41F6F91-C980-4FDA-ABE7-D7A10483C780}" name="列1" dataDxfId="12" dataCellStyle="標準 2"/>
-    <tableColumn id="14" xr3:uid="{E0871752-EE33-4AED-9D38-9217736E3632}" name="状態" dataDxfId="11" dataCellStyle="標準 2"/>
-    <tableColumn id="5" xr3:uid="{B8E02EFF-8D47-4B8A-9D0D-89983E192A30}" name="共同受注通知書" dataDxfId="3" dataCellStyle="標準 2"/>
-    <tableColumn id="15" xr3:uid="{B188B094-0E8D-4988-81A9-B05DD2BB8958}" name="備考" dataDxfId="10" dataCellStyle="標準 2"/>
+    <tableColumn id="2" xr3:uid="{9BCD8C79-75B0-46CB-81EA-08210BDEDA51}" name="タイミング" dataDxfId="23" dataCellStyle="標準 2"/>
+    <tableColumn id="1" xr3:uid="{71C1CE89-BF1F-4D36-A869-3F9289BC65D3}" name="カテゴリ2" dataDxfId="22" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{A41F6F91-C980-4FDA-ABE7-D7A10483C780}" name="列1" dataDxfId="21" dataCellStyle="標準 2"/>
+    <tableColumn id="14" xr3:uid="{E0871752-EE33-4AED-9D38-9217736E3632}" name="状態" dataDxfId="20" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{B8E02EFF-8D47-4B8A-9D0D-89983E192A30}" name="共同受注通知書" dataDxfId="19" dataCellStyle="標準 2"/>
+    <tableColumn id="15" xr3:uid="{B188B094-0E8D-4988-81A9-B05DD2BB8958}" name="備考" dataDxfId="18" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72048007-8526-42DE-A339-9D8654C4D34C}" name="テーブル223" displayName="テーブル223" ref="A1:E23" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24" headerRowCellStyle="標準 2">
-  <autoFilter ref="A1:E23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72048007-8526-42DE-A339-9D8654C4D34C}" name="テーブル223" displayName="テーブル223" ref="A1:E31" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14" headerRowCellStyle="標準 2">
+  <autoFilter ref="A1:E31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{D99A842B-D9B6-4C9F-9FA3-4DF6CE6BDD1C}" name="タイミング" dataDxfId="23" dataCellStyle="標準 2"/>
-    <tableColumn id="1" xr3:uid="{60F4688E-5497-471B-8448-F31F20035DD5}" name="カテゴリ2" dataDxfId="22" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{C969242E-1AB3-48E9-BA43-2BB0F4826FEC}" name="列1" dataDxfId="21" dataCellStyle="標準 2"/>
-    <tableColumn id="14" xr3:uid="{21D8CC79-387E-4056-8934-97B278BC68CD}" name="状態" dataDxfId="20" dataCellStyle="標準 2"/>
-    <tableColumn id="15" xr3:uid="{68902BC1-ED87-4EA6-941E-472D4B2FD768}" name="備考" dataDxfId="19" dataCellStyle="標準 2"/>
+    <tableColumn id="2" xr3:uid="{D99A842B-D9B6-4C9F-9FA3-4DF6CE6BDD1C}" name="タイミング" dataDxfId="13" dataCellStyle="標準 2"/>
+    <tableColumn id="1" xr3:uid="{60F4688E-5497-471B-8448-F31F20035DD5}" name="カテゴリ2" dataDxfId="12" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{C969242E-1AB3-48E9-BA43-2BB0F4826FEC}" name="列1" dataDxfId="11" dataCellStyle="標準 2"/>
+    <tableColumn id="14" xr3:uid="{21D8CC79-387E-4056-8934-97B278BC68CD}" name="状態" dataDxfId="10" dataCellStyle="標準 2"/>
+    <tableColumn id="15" xr3:uid="{68902BC1-ED87-4EA6-941E-472D4B2FD768}" name="備考" dataDxfId="9" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2508,10 +2529,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4656580-696B-4404-819C-D2E693037F0A}">
   <dimension ref="B1:L59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18.75"/>
@@ -3587,24 +3608,24 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="B3:B44 D3:G44 B45:G57">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>$E3="★"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$E3="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$E3="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C44">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$E3="★"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$E3="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$E3="○"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3625,10 +3646,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AD35A-AD8A-4F44-9CB3-8A5AFF024648}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18.75"/>
@@ -3956,8 +3977,12 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>274</v>
+      </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
       <c r="F21" s="2"/>
@@ -3966,8 +3991,12 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
       <c r="F22" s="2"/>
@@ -3975,58 +4004,98 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="2"/>
       <c r="G25" s="1"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10">
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="2"/>
       <c r="G26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="2"/>
       <c r="G27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10">
+      <c r="A28" s="6"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="2"/>
       <c r="G28" s="1"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10">
+      <c r="A29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="2"/>
       <c r="G29" s="1"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10">
+      <c r="A30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="2"/>
       <c r="G30" s="1"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="2"/>
       <c r="G31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="F32" s="2"/>
       <c r="G32" s="1"/>
       <c r="J32" s="1"/>
@@ -4136,19 +4205,19 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="A2:E22">
-    <cfRule type="expression" dxfId="6" priority="4">
+  <conditionalFormatting sqref="A2:E30">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D2="★"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$D2="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$D2="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D23" xr:uid="{BE40300F-8C6E-4CFA-9EDB-706E90C5E4C6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D31" xr:uid="{BE40300F-8C6E-4CFA-9EDB-706E90C5E4C6}">
       <formula1>"★,○,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4397,11 +4466,11 @@
         <v>152</v>
       </c>
       <c r="I3" s="16" t="str">
-        <f>IF(E3="○","rename """&amp;G3&amp;""" """&amp;RIGHT(G3,LEN(G3)-FIND("●",SUBSTITUTE(G3,"\","●",LEN(G3)-LEN(SUBSTITUTE(G3,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" ref="I3:I39" si="0">IF(E3="○","rename """&amp;G3&amp;""" """&amp;RIGHT(G3,LEN(G3)-FIND("●",SUBSTITUTE(G3,"\","●",LEN(G3)-LEN(SUBSTITUTE(G3,"\","")))))&amp;"_bak""","")</f>
         <v/>
       </c>
       <c r="J3" s="16" t="str">
-        <f>IF(F3&lt;&gt;"○","",
+        <f t="shared" ref="J3:J39" si="1">IF(F3&lt;&gt;"○","",
 IF(
 C3="symbolic",
 "mklink "&amp;IF(D3="folder","/d ","")&amp;""""&amp;G3&amp;""" """&amp;H3&amp;"""",
@@ -4439,16 +4508,11 @@
         <v>153</v>
       </c>
       <c r="I4" s="16" t="str">
-        <f>IF(E4="○","rename """&amp;G4&amp;""" """&amp;RIGHT(G4,LEN(G4)-FIND("●",SUBSTITUTE(G4,"\","●",LEN(G4)-LEN(SUBSTITUTE(G4,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J4" s="16" t="str">
-        <f>IF(F4&lt;&gt;"○","",
-IF(
-C4="symbolic",
-"mklink "&amp;IF(D4="folder","/d ","")&amp;""""&amp;G4&amp;""" """&amp;H4&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G4&amp;".lnk');$s.TargetPath='"&amp;H4&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink /d "C:\codes" "%USERPROFILE%\_root\30_tool"</v>
       </c>
       <c r="K4" t="s">
@@ -4481,16 +4545,11 @@
         <v>247</v>
       </c>
       <c r="I5" s="16" t="str">
-        <f>IF(E5="○","rename """&amp;G5&amp;""" """&amp;RIGHT(G5,LEN(G5)-FIND("●",SUBSTITUTE(G5,"\","●",LEN(G5)-LEN(SUBSTITUTE(G5,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J5" s="16" t="str">
-        <f>IF(F5&lt;&gt;"○","",
-IF(
-C5="symbolic",
-"mklink "&amp;IF(D5="folder","/d ","")&amp;""""&amp;G5&amp;""" """&amp;H5&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G5&amp;".lnk');$s.TargetPath='"&amp;H5&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink /d "C:\prg_exe" "%USERPROFILE%\_root\38_programs"</v>
       </c>
       <c r="K5" t="s">
@@ -4523,16 +4582,11 @@
         <v>242</v>
       </c>
       <c r="I6" s="16" t="str">
-        <f>IF(E6="○","rename """&amp;G6&amp;""" """&amp;RIGHT(G6,LEN(G6)-FIND("●",SUBSTITUTE(G6,"\","●",LEN(G6)-LEN(SUBSTITUTE(G6,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J6" s="16" t="str">
-        <f>IF(F6&lt;&gt;"○","",
-IF(
-C6="symbolic",
-"mklink "&amp;IF(D6="folder","/d ","")&amp;""""&amp;G6&amp;""" """&amp;H6&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G6&amp;".lnk');$s.TargetPath='"&amp;H6&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink /d "C:\other" "%USERPROFILE%\_root\39_other"</v>
       </c>
       <c r="K6" t="s">
@@ -4565,16 +4619,11 @@
         <v>107</v>
       </c>
       <c r="I7" s="16" t="str">
-        <f>IF(E7="○","rename """&amp;G7&amp;""" """&amp;RIGHT(G7,LEN(G7)-FIND("●",SUBSTITUTE(G7,"\","●",LEN(G7)-LEN(SUBSTITUTE(G7,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v>rename "%USERPROFILE%\AppData\Roaming\Microsoft\AddIns" "AddIns_bak"</v>
       </c>
       <c r="J7" s="16" t="str">
-        <f>IF(F7&lt;&gt;"○","",
-IF(
-C7="symbolic",
-"mklink "&amp;IF(D7="folder","/d ","")&amp;""""&amp;G7&amp;""" """&amp;H7&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G7&amp;".lnk');$s.TargetPath='"&amp;H7&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink /d "%USERPROFILE%\AppData\Roaming\Microsoft\AddIns" "C:\codes\vba\excel\AddIns"</v>
       </c>
       <c r="K7" t="s">
@@ -4607,16 +4656,11 @@
         <v>164</v>
       </c>
       <c r="I8" s="16" t="str">
-        <f>IF(E8="○","rename """&amp;G8&amp;""" """&amp;RIGHT(G8,LEN(G8)-FIND("●",SUBSTITUTE(G8,"\","●",LEN(G8)-LEN(SUBSTITUTE(G8,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v>rename "%USERPROFILE%\AppData\Roaming\Microsoft\Word\STARTUP" "STARTUP_bak"</v>
       </c>
       <c r="J8" s="16" t="str">
-        <f>IF(F8&lt;&gt;"○","",
-IF(
-C8="symbolic",
-"mklink "&amp;IF(D8="folder","/d ","")&amp;""""&amp;G8&amp;""" """&amp;H8&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G8&amp;".lnk');$s.TargetPath='"&amp;H8&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink /d "%USERPROFILE%\AppData\Roaming\Microsoft\Word\STARTUP" "C:\codes\vba\word\AddIns"</v>
       </c>
       <c r="K8" t="s">
@@ -4649,16 +4693,11 @@
         <v>165</v>
       </c>
       <c r="I9" s="16" t="str">
-        <f>IF(E9="○","rename """&amp;G9&amp;""" """&amp;RIGHT(G9,LEN(G9)-FIND("●",SUBSTITUTE(G9,"\","●",LEN(G9)-LEN(SUBSTITUTE(G9,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v>rename "%USERPROFILE%\AppData\Roaming\Microsoft\Outlook" "Outlook_bak"</v>
       </c>
       <c r="J9" s="16" t="str">
-        <f>IF(F9&lt;&gt;"○","",
-IF(
-C9="symbolic",
-"mklink "&amp;IF(D9="folder","/d ","")&amp;""""&amp;G9&amp;""" """&amp;H9&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G9&amp;".lnk');$s.TargetPath='"&amp;H9&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink /d "%USERPROFILE%\AppData\Roaming\Microsoft\Outlook" "C:\codes\vba\outlook\AddIns"</v>
       </c>
       <c r="K9" t="s">
@@ -4691,16 +4730,11 @@
         <v>112</v>
       </c>
       <c r="I10" s="16" t="str">
-        <f>IF(E10="○","rename """&amp;G10&amp;""" """&amp;RIGHT(G10,LEN(G10)-FIND("●",SUBSTITUTE(G10,"\","●",LEN(G10)-LEN(SUBSTITUTE(G10,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v>rename "C:\prg_exe\Hidemaru\macro" "macro_bak"</v>
       </c>
       <c r="J10" s="16" t="str">
-        <f>IF(F10&lt;&gt;"○","",
-IF(
-C10="symbolic",
-"mklink "&amp;IF(D10="folder","/d ","")&amp;""""&amp;G10&amp;""" """&amp;H10&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G10&amp;".lnk');$s.TargetPath='"&amp;H10&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink /d "C:\prg_exe\Hidemaru\macro" "C:\codes\hmac"</v>
       </c>
       <c r="K10" t="s">
@@ -4733,16 +4767,11 @@
         <v>115</v>
       </c>
       <c r="I11" s="16" t="str">
-        <f>IF(E11="○","rename """&amp;G11&amp;""" """&amp;RIGHT(G11,LEN(G11)-FIND("●",SUBSTITUTE(G11,"\","●",LEN(G11)-LEN(SUBSTITUTE(G11,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v>rename "C:\prg_exe\Hidemaru\setting" "setting_bak"</v>
       </c>
       <c r="J11" s="16" t="str">
-        <f>IF(F11&lt;&gt;"○","",
-IF(
-C11="symbolic",
-"mklink "&amp;IF(D11="folder","/d ","")&amp;""""&amp;G11&amp;""" """&amp;H11&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G11&amp;".lnk');$s.TargetPath='"&amp;H11&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink /d "C:\prg_exe\Hidemaru\setting" "C:\other\setting\hidemaru"</v>
       </c>
       <c r="K11" t="s">
@@ -4775,16 +4804,11 @@
         <v>105</v>
       </c>
       <c r="I12" s="16" t="str">
-        <f>IF(E12="○","rename """&amp;G12&amp;""" """&amp;RIGHT(G12,LEN(G12)-FIND("●",SUBSTITUTE(G12,"\","●",LEN(G12)-LEN(SUBSTITUTE(G12,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J12" s="16" t="str">
-        <f>IF(F12&lt;&gt;"○","",
-IF(
-C12="symbolic",
-"mklink "&amp;IF(D12="folder","/d ","")&amp;""""&amp;G12&amp;""" """&amp;H12&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G12&amp;".lnk');$s.TargetPath='"&amp;H12&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_gvimrc" "C:\codes\vim\_gvimrc"</v>
       </c>
       <c r="K12" t="s">
@@ -4817,16 +4841,11 @@
         <v>106</v>
       </c>
       <c r="I13" s="16" t="str">
-        <f>IF(E13="○","rename """&amp;G13&amp;""" """&amp;RIGHT(G13,LEN(G13)-FIND("●",SUBSTITUTE(G13,"\","●",LEN(G13)-LEN(SUBSTITUTE(G13,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J13" s="16" t="str">
-        <f>IF(F13&lt;&gt;"○","",
-IF(
-C13="symbolic",
-"mklink "&amp;IF(D13="folder","/d ","")&amp;""""&amp;G13&amp;""" """&amp;H13&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G13&amp;".lnk');$s.TargetPath='"&amp;H13&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_vimrc" "C:\codes\vim\_vimrc"</v>
       </c>
       <c r="K13" t="s">
@@ -4859,16 +4878,11 @@
         <v>108</v>
       </c>
       <c r="I14" s="16" t="str">
-        <f>IF(E14="○","rename """&amp;G14&amp;""" """&amp;RIGHT(G14,LEN(G14)-FIND("●",SUBSTITUTE(G14,"\","●",LEN(G14)-LEN(SUBSTITUTE(G14,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J14" s="16" t="str">
-        <f>IF(F14&lt;&gt;"○","",
-IF(
-C14="symbolic",
-"mklink "&amp;IF(D14="folder","/d ","")&amp;""""&amp;G14&amp;""" """&amp;H14&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G14&amp;".lnk');$s.TargetPath='"&amp;H14&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\bufferlist.vim\plugin\bufferlist.vim" "C:\codes\vim\_plugins_user\bufferlist.vim\plugin\bufferlist.vim"</v>
       </c>
       <c r="K14" t="s">
@@ -4901,16 +4915,11 @@
         <v>109</v>
       </c>
       <c r="I15" s="16" t="str">
-        <f>IF(E15="○","rename """&amp;G15&amp;""" """&amp;RIGHT(G15,LEN(G15)-FIND("●",SUBSTITUTE(G15,"\","●",LEN(G15)-LEN(SUBSTITUTE(G15,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J15" s="16" t="str">
-        <f>IF(F15&lt;&gt;"○","",
-IF(
-C15="symbolic",
-"mklink "&amp;IF(D15="folder","/d ","")&amp;""""&amp;G15&amp;""" """&amp;H15&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G15&amp;".lnk');$s.TargetPath='"&amp;H15&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\FavEx\plugin\favex.vim" "C:\codes\vim\_plugins_user\FavEx\plugin\favex.vim"</v>
       </c>
       <c r="K15" t="s">
@@ -4943,16 +4952,11 @@
         <v>110</v>
       </c>
       <c r="I16" s="16" t="str">
-        <f>IF(E16="○","rename """&amp;G16&amp;""" """&amp;RIGHT(G16,LEN(G16)-FIND("●",SUBSTITUTE(G16,"\","●",LEN(G16)-LEN(SUBSTITUTE(G16,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J16" s="16" t="str">
-        <f>IF(F16&lt;&gt;"○","",
-IF(
-C16="symbolic",
-"mklink "&amp;IF(D16="folder","/d ","")&amp;""""&amp;G16&amp;""" """&amp;H16&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G16&amp;".lnk');$s.TargetPath='"&amp;H16&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\FavEx\favlist" "C:\codes\vim\_plugins_user\FavEx\favlist"</v>
       </c>
       <c r="K16" t="s">
@@ -4985,16 +4989,11 @@
         <v>111</v>
       </c>
       <c r="I17" s="16" t="str">
-        <f>IF(E17="○","rename """&amp;G17&amp;""" """&amp;RIGHT(G17,LEN(G17)-FIND("●",SUBSTITUTE(G17,"\","●",LEN(G17)-LEN(SUBSTITUTE(G17,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J17" s="16" t="str">
-        <f>IF(F17&lt;&gt;"○","",
-IF(
-C17="symbolic",
-"mklink "&amp;IF(D17="folder","/d ","")&amp;""""&amp;G17&amp;""" """&amp;H17&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G17&amp;".lnk');$s.TargetPath='"&amp;H17&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\jellybeans.vim\colors\jellybeans.vim" "C:\codes\vim\_plugins_user\jellybeans.vim\colors\jellybeans.vim"</v>
       </c>
       <c r="K17" t="s">
@@ -5027,16 +5026,11 @@
         <v>113</v>
       </c>
       <c r="I18" s="16" t="str">
-        <f>IF(E18="○","rename """&amp;G18&amp;""" """&amp;RIGHT(G18,LEN(G18)-FIND("●",SUBSTITUTE(G18,"\","●",LEN(G18)-LEN(SUBSTITUTE(G18,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J18" s="16" t="str">
-        <f>IF(F18&lt;&gt;"○","",
-IF(
-C18="symbolic",
-"mklink "&amp;IF(D18="folder","/d ","")&amp;""""&amp;G18&amp;""" """&amp;H18&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G18&amp;".lnk');$s.TargetPath='"&amp;H18&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\mark.vim\plugin\mark.vim" "C:\codes\vim\_plugins_user\mark.vim\plugin\mark.vim"</v>
       </c>
       <c r="K18" t="s">
@@ -5069,16 +5063,11 @@
         <v>114</v>
       </c>
       <c r="I19" s="16" t="str">
-        <f>IF(E19="○","rename """&amp;G19&amp;""" """&amp;RIGHT(G19,LEN(G19)-FIND("●",SUBSTITUTE(G19,"\","●",LEN(G19)-LEN(SUBSTITUTE(G19,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J19" s="16" t="str">
-        <f>IF(F19&lt;&gt;"○","",
-IF(
-C19="symbolic",
-"mklink "&amp;IF(D19="folder","/d ","")&amp;""""&amp;G19&amp;""" """&amp;H19&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G19&amp;".lnk');$s.TargetPath='"&amp;H19&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink "C:\prg_exe\Vim\_plugins_user\qfixapp\autoload\qfixgrep.vim" "C:\codes\vim\_plugins_user\qfixapp\autoload\qfixgrep.vim"</v>
       </c>
       <c r="K19" t="s">
@@ -5111,16 +5100,11 @@
         <v>116</v>
       </c>
       <c r="I20" s="16" t="str">
-        <f>IF(E20="○","rename """&amp;G20&amp;""" """&amp;RIGHT(G20,LEN(G20)-FIND("●",SUBSTITUTE(G20,"\","●",LEN(G20)-LEN(SUBSTITUTE(G20,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J20" s="16" t="str">
-        <f>IF(F20&lt;&gt;"○","",
-IF(
-C20="symbolic",
-"mklink "&amp;IF(D20="folder","/d ","")&amp;""""&amp;G20&amp;""" """&amp;H20&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G20&amp;".lnk');$s.TargetPath='"&amp;H20&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>mklink "%USERPROFILE%\AppData\Local\Packages\Microsoft.WindowsTerminal_8wekyb3d8bbwe\LocalState\settings.json" "C:\codes\wsl2\settings.json"</v>
       </c>
       <c r="K20" t="s">
@@ -5153,16 +5137,11 @@
         <v>136</v>
       </c>
       <c r="I21" s="16" t="str">
-        <f>IF(E21="○","rename """&amp;G21&amp;""" """&amp;RIGHT(G21,LEN(G21)-FIND("●",SUBSTITUTE(G21,"\","●",LEN(G21)-LEN(SUBSTITUTE(G21,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J21" s="16" t="str">
-        <f>IF(F21&lt;&gt;"○","",
-IF(
-C21="symbolic",
-"mklink "&amp;IF(D21="folder","/d ","")&amp;""""&amp;G21&amp;""" """&amp;H21&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G21&amp;".lnk');$s.TargetPath='"&amp;H21&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\PopupTimeSignal.vbs.lnk');$s.TargetPath='C:\codes\vbs\tools\win\other\PopupTimeSignal.vbs';$s.Save()"</v>
       </c>
       <c r="K21" t="s">
@@ -5195,16 +5174,11 @@
         <v>235</v>
       </c>
       <c r="I22" s="16" t="str">
-        <f>IF(E22="○","rename """&amp;G22&amp;""" """&amp;RIGHT(G22,LEN(G22)-FIND("●",SUBSTITUTE(G22,"\","●",LEN(G22)-LEN(SUBSTITUTE(G22,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J22" s="16" t="str">
-        <f>IF(F22&lt;&gt;"○","",
-IF(
-C22="symbolic",
-"mklink "&amp;IF(D22="folder","/d ","")&amp;""""&amp;G22&amp;""" """&amp;H22&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G22&amp;".lnk');$s.TargetPath='"&amp;H22&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\EasyShot.exe.lnk');$s.TargetPath='C:\prg_exe\EasyShot\EasyShot.exe';$s.Save()"</v>
       </c>
       <c r="K22" t="s">
@@ -5237,16 +5211,11 @@
         <v>236</v>
       </c>
       <c r="I23" s="16" t="str">
-        <f>IF(E23="○","rename """&amp;G23&amp;""" """&amp;RIGHT(G23,LEN(G23)-FIND("●",SUBSTITUTE(G23,"\","●",LEN(G23)-LEN(SUBSTITUTE(G23,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J23" s="16" t="str">
-        <f>IF(F23&lt;&gt;"○","",
-IF(
-C23="symbolic",
-"mklink "&amp;IF(D23="folder","/d ","")&amp;""""&amp;G23&amp;""" """&amp;H23&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G23&amp;".lnk');$s.TargetPath='"&amp;H23&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\UserDefHotKey.ahk.lnk');$s.TargetPath='C:\codes\ahk\UserDefHotKey.ahk';$s.Save()"</v>
       </c>
       <c r="K23" t="s">
@@ -5279,16 +5248,11 @@
         <v>137</v>
       </c>
       <c r="I24" s="16" t="str">
-        <f>IF(E24="○","rename """&amp;G24&amp;""" """&amp;RIGHT(G24,LEN(G24)-FIND("●",SUBSTITUTE(G24,"\","●",LEN(G24)-LEN(SUBSTITUTE(G24,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J24" s="16" t="str">
-        <f>IF(F24&lt;&gt;"○","",
-IF(
-C24="symbolic",
-"mklink "&amp;IF(D24="folder","/d ","")&amp;""""&amp;G24&amp;""" """&amp;H24&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G24&amp;".lnk');$s.TargetPath='"&amp;H24&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\100_【Doc】GVim (&amp;V).lnk');$s.TargetPath='C:\prg_exe\Vim\gvim.exe';$s.Save()"</v>
       </c>
       <c r="K24" t="s">
@@ -5321,16 +5285,11 @@
         <v>138</v>
       </c>
       <c r="I25" s="16" t="str">
-        <f>IF(E25="○","rename """&amp;G25&amp;""" """&amp;RIGHT(G25,LEN(G25)-FIND("●",SUBSTITUTE(G25,"\","●",LEN(G25)-LEN(SUBSTITUTE(G25,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J25" s="16" t="str">
-        <f>IF(F25&lt;&gt;"○","",
-IF(
-C25="symbolic",
-"mklink "&amp;IF(D25="folder","/d ","")&amp;""""&amp;G25&amp;""" """&amp;H25&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G25&amp;".lnk');$s.TargetPath='"&amp;H25&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\101_【Doc】秀丸 (&amp;H).lnk');$s.TargetPath='C:\prg_exe\Hidemaru\Hidemaru.exe';$s.Save()"</v>
       </c>
       <c r="K25" t="s">
@@ -5363,16 +5322,11 @@
         <v>139</v>
       </c>
       <c r="I26" s="16" t="str">
-        <f>IF(E26="○","rename """&amp;G26&amp;""" """&amp;RIGHT(G26,LEN(G26)-FIND("●",SUBSTITUTE(G26,"\","●",LEN(G26)-LEN(SUBSTITUTE(G26,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J26" s="16" t="str">
-        <f>IF(F26&lt;&gt;"○","",
-IF(
-C26="symbolic",
-"mklink "&amp;IF(D26="folder","/d ","")&amp;""""&amp;G26&amp;""" """&amp;H26&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G26&amp;".lnk');$s.TargetPath='"&amp;H26&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\110_【Doc】WinMerge.lnk');$s.TargetPath='C:\prg_exe\WinMerge\WinMergeU.exe';$s.Save()"</v>
       </c>
       <c r="K26" t="s">
@@ -5405,16 +5359,11 @@
         <v>148</v>
       </c>
       <c r="I27" s="16" t="str">
-        <f>IF(E27="○","rename """&amp;G27&amp;""" """&amp;RIGHT(G27,LEN(G27)-FIND("●",SUBSTITUTE(G27,"\","●",LEN(G27)-LEN(SUBSTITUTE(G27,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J27" s="16" t="str">
-        <f>IF(F27&lt;&gt;"○","",
-IF(
-C27="symbolic",
-"mklink "&amp;IF(D27="folder","/d ","")&amp;""""&amp;G27&amp;""" """&amp;H27&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G27&amp;".lnk');$s.TargetPath='"&amp;H27&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\120_【Doc】Excel (&amp;E).lnk');$s.TargetPath='C:\Program Files (x86)\Microsoft Office\root\Office16\EXCEL.EXE';$s.Save()"</v>
       </c>
       <c r="K27" t="s">
@@ -5447,16 +5396,11 @@
         <v>140</v>
       </c>
       <c r="I28" s="16" t="str">
-        <f>IF(E28="○","rename """&amp;G28&amp;""" """&amp;RIGHT(G28,LEN(G28)-FIND("●",SUBSTITUTE(G28,"\","●",LEN(G28)-LEN(SUBSTITUTE(G28,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J28" s="16" t="str">
-        <f>IF(F28&lt;&gt;"○","",
-IF(
-C28="symbolic",
-"mklink "&amp;IF(D28="folder","/d ","")&amp;""""&amp;G28&amp;""" """&amp;H28&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G28&amp;".lnk');$s.TargetPath='"&amp;H28&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\123_【Doc】Word.lnk');$s.TargetPath='C:\Program Files (x86)\Microsoft Office\root\Office16\WINWORD.EXE';$s.Save()"</v>
       </c>
       <c r="K28" t="s">
@@ -5489,16 +5433,11 @@
         <v>141</v>
       </c>
       <c r="I29" s="16" t="str">
-        <f>IF(E29="○","rename """&amp;G29&amp;""" """&amp;RIGHT(G29,LEN(G29)-FIND("●",SUBSTITUTE(G29,"\","●",LEN(G29)-LEN(SUBSTITUTE(G29,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J29" s="16" t="str">
-        <f>IF(F29&lt;&gt;"○","",
-IF(
-C29="symbolic",
-"mklink "&amp;IF(D29="folder","/d ","")&amp;""""&amp;G29&amp;""" """&amp;H29&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G29&amp;".lnk');$s.TargetPath='"&amp;H29&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\122_【Doc】Visio.lnk');$s.TargetPath='C:\Program Files (x86)\Microsoft Office\root\Office16\VISIO.EXE';$s.Save()"</v>
       </c>
       <c r="K29" t="s">
@@ -5531,16 +5470,11 @@
         <v>184</v>
       </c>
       <c r="I30" s="16" t="str">
-        <f>IF(E30="○","rename """&amp;G30&amp;""" """&amp;RIGHT(G30,LEN(G30)-FIND("●",SUBSTITUTE(G30,"\","●",LEN(G30)-LEN(SUBSTITUTE(G30,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J30" s="16" t="str">
-        <f>IF(F30&lt;&gt;"○","",
-IF(
-C30="symbolic",
-"mklink "&amp;IF(D30="folder","/d ","")&amp;""""&amp;G30&amp;""" """&amp;H30&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G30&amp;".lnk');$s.TargetPath='"&amp;H30&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\200_【Scr】BackUpFiles.vbs (&amp;B).lnk');$s.TargetPath='C:\codes\vbs\tools\win\file_ope\BackUpFiles.vbs';$s.Save()"</v>
       </c>
       <c r="K30" t="s">
@@ -5573,16 +5507,11 @@
         <v>185</v>
       </c>
       <c r="I31" s="16" t="str">
-        <f>IF(E31="○","rename """&amp;G31&amp;""" """&amp;RIGHT(G31,LEN(G31)-FIND("●",SUBSTITUTE(G31,"\","●",LEN(G31)-LEN(SUBSTITUTE(G31,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J31" s="16" t="str">
-        <f>IF(F31&lt;&gt;"○","",
-IF(
-C31="symbolic",
-"mklink "&amp;IF(D31="folder","/d ","")&amp;""""&amp;G31&amp;""" """&amp;H31&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G31&amp;".lnk');$s.TargetPath='"&amp;H31&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\210_【Scr】CopyAsWorkFile.vbs (&amp;W).lnk');$s.TargetPath='C:\codes\vbs\tools\win\file_ope\CopyAsWorkFile.vbs';$s.Save()"</v>
       </c>
       <c r="K31" t="s">
@@ -5615,16 +5544,11 @@
         <v>186</v>
       </c>
       <c r="I32" s="16" t="str">
-        <f>IF(E32="○","rename """&amp;G32&amp;""" """&amp;RIGHT(G32,LEN(G32)-FIND("●",SUBSTITUTE(G32,"\","●",LEN(G32)-LEN(SUBSTITUTE(G32,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J32" s="16" t="str">
-        <f>IF(F32&lt;&gt;"○","",
-IF(
-C32="symbolic",
-"mklink "&amp;IF(D32="folder","/d ","")&amp;""""&amp;G32&amp;""" """&amp;H32&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G32&amp;".lnk');$s.TargetPath='"&amp;H32&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\211_【Scr】CopyAsWorkFileFromURL.vbs.lnk');$s.TargetPath='C:\codes\vbs\tools\win\file_ope\CopyAsWorkFileFromURL.vbs';$s.Save()"</v>
       </c>
       <c r="K32" t="s">
@@ -5657,16 +5581,11 @@
         <v>187</v>
       </c>
       <c r="I33" s="16" t="str">
-        <f>IF(E33="○","rename """&amp;G33&amp;""" """&amp;RIGHT(G33,LEN(G33)-FIND("●",SUBSTITUTE(G33,"\","●",LEN(G33)-LEN(SUBSTITUTE(G33,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J33" s="16" t="str">
-        <f>IF(F33&lt;&gt;"○","",
-IF(
-C33="symbolic",
-"mklink "&amp;IF(D33="folder","/d ","")&amp;""""&amp;G33&amp;""" """&amp;H33&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G33&amp;".lnk');$s.TargetPath='"&amp;H33&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\220_【Scr】CreateRenameBat.vbs (&amp;R).lnk');$s.TargetPath='C:\codes\vbs\tools\win\file_ope\CreateRenameBat.vbs';$s.Save()"</v>
       </c>
       <c r="K33" t="s">
@@ -5699,16 +5618,11 @@
         <v>188</v>
       </c>
       <c r="I34" s="16" t="str">
-        <f>IF(E34="○","rename """&amp;G34&amp;""" """&amp;RIGHT(G34,LEN(G34)-FIND("●",SUBSTITUTE(G34,"\","●",LEN(G34)-LEN(SUBSTITUTE(G34,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J34" s="16" t="str">
-        <f>IF(F34&lt;&gt;"○","",
-IF(
-C34="symbolic",
-"mklink "&amp;IF(D34="folder","/d ","")&amp;""""&amp;G34&amp;""" """&amp;H34&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G34&amp;".lnk');$s.TargetPath='"&amp;H34&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\SendTo\230_【Scr】CreateSymbolicLink.vbs (&amp;S).lnk');$s.TargetPath='C:\codes\vbs\tools\win\file_ope\CreateSymbolicLink.vbs';$s.Save()"</v>
       </c>
       <c r="K34" t="s">
@@ -5741,16 +5655,11 @@
         <v>224</v>
       </c>
       <c r="I35" s="16" t="str">
-        <f>IF(E35="○","rename """&amp;G35&amp;""" """&amp;RIGHT(G35,LEN(G35)-FIND("●",SUBSTITUTE(G35,"\","●",LEN(G35)-LEN(SUBSTITUTE(G35,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J35" s="16" t="str">
-        <f>IF(F35&lt;&gt;"○","",
-IF(
-C35="symbolic",
-"mklink "&amp;IF(D35="folder","/d ","")&amp;""""&amp;G35&amp;""" """&amp;H35&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G35&amp;".lnk');$s.TargetPath='"&amp;H35&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\$Hotkey.lnk');$s.TargetPath='C:\codes\ahk\UserDefHotKey.ahk';$s.Save()"</v>
       </c>
       <c r="K35" t="s">
@@ -5767,16 +5676,11 @@
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16" t="str">
-        <f>IF(E36="○","rename """&amp;G36&amp;""" """&amp;RIGHT(G36,LEN(G36)-FIND("●",SUBSTITUTE(G36,"\","●",LEN(G36)-LEN(SUBSTITUTE(G36,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J36" s="16" t="str">
-        <f>IF(F36&lt;&gt;"○","",
-IF(
-C36="symbolic",
-"mklink "&amp;IF(D36="folder","/d ","")&amp;""""&amp;G36&amp;""" """&amp;H36&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G36&amp;".lnk');$s.TargetPath='"&amp;H36&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K36" t="s">
@@ -5793,16 +5697,11 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16" t="str">
-        <f>IF(E37="○","rename """&amp;G37&amp;""" """&amp;RIGHT(G37,LEN(G37)-FIND("●",SUBSTITUTE(G37,"\","●",LEN(G37)-LEN(SUBSTITUTE(G37,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J37" s="16" t="str">
-        <f>IF(F37&lt;&gt;"○","",
-IF(
-C37="symbolic",
-"mklink "&amp;IF(D37="folder","/d ","")&amp;""""&amp;G37&amp;""" """&amp;H37&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G37&amp;".lnk');$s.TargetPath='"&amp;H37&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K37" t="s">
@@ -5819,16 +5718,11 @@
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16" t="str">
-        <f>IF(E38="○","rename """&amp;G38&amp;""" """&amp;RIGHT(G38,LEN(G38)-FIND("●",SUBSTITUTE(G38,"\","●",LEN(G38)-LEN(SUBSTITUTE(G38,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J38" s="16" t="str">
-        <f>IF(F38&lt;&gt;"○","",
-IF(
-C38="symbolic",
-"mklink "&amp;IF(D38="folder","/d ","")&amp;""""&amp;G38&amp;""" """&amp;H38&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G38&amp;".lnk');$s.TargetPath='"&amp;H38&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K38" t="s">
@@ -5861,16 +5755,11 @@
         <v>233</v>
       </c>
       <c r="I39" s="16" t="str">
-        <f>IF(E39="○","rename """&amp;G39&amp;""" """&amp;RIGHT(G39,LEN(G39)-FIND("●",SUBSTITUTE(G39,"\","●",LEN(G39)-LEN(SUBSTITUTE(G39,"\","")))))&amp;"_bak""","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J39" s="16" t="str">
-        <f>IF(F39&lt;&gt;"○","",
-IF(
-C39="symbolic",
-"mklink "&amp;IF(D39="folder","/d ","")&amp;""""&amp;G39&amp;""" """&amp;H39&amp;"""",
-"powershell ""$s=(New-Object -COM WScript.Shell).CreateShortcut('"&amp;G39&amp;".lnk');$s.TargetPath='"&amp;H39&amp;"';$s.Save()"""
-))</f>
+        <f t="shared" si="1"/>
         <v>powershell "$s=(New-Object -COM WScript.Shell).CreateShortcut('%USERPROFILE%\AppData\Roaming\Microsoft\Windows\Start Menu\Programs\Startup\XF.exe.lnk');$s.TargetPath='C:\prg_exe\X-Finder\XF.exe';$s.Save()"</v>
       </c>
       <c r="K39" t="s">

--- a/プロジェクト参入前チェックリスト.xlsx
+++ b/プロジェクト参入前チェックリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAA461E-BCCC-47BC-B8E1-C307126FD13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EBE22C-450D-484A-A63F-AD47A761DFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="-120" windowWidth="26940" windowHeight="16440" activeTab="1" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
+    <workbookView xWindow="2025" yWindow="-120" windowWidth="26895" windowHeight="16440" activeTab="3" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
   <sheets>
     <sheet name="プロジェクト参入前" sheetId="2" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="278">
   <si>
     <t>タイミング</t>
     <phoneticPr fontId="4"/>
@@ -1468,6 +1468,24 @@
     <rPh sb="0" eb="2">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★codesなどのパスを環境変数化</t>
+    <rPh sb="12" eb="14">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ヘンスウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★%USERPROFILE%\DesktopからOneDrive\Desktopへのシンボリックリンク追加</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>★wordアドインリンク</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1670,7 +1688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1723,9 +1741,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1739,10 +1754,9 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -1750,87 +1764,6 @@
     <cellStyle name="標準 2" xfId="1" xr:uid="{4B116C1B-E5AF-422D-813F-F590258E4932}"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2000,6 +1933,33 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2188,6 +2148,60 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2202,29 +2216,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB9C080C-16AB-477C-B8B1-DFF22A258005}" name="テーブル22" displayName="テーブル22" ref="B2:G58" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24" headerRowCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB9C080C-16AB-477C-B8B1-DFF22A258005}" name="テーブル22" displayName="テーブル22" ref="B2:G58" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18" headerRowCellStyle="標準 2">
   <autoFilter ref="B2:G58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{9BCD8C79-75B0-46CB-81EA-08210BDEDA51}" name="タイミング" dataDxfId="23" dataCellStyle="標準 2"/>
-    <tableColumn id="1" xr3:uid="{71C1CE89-BF1F-4D36-A869-3F9289BC65D3}" name="カテゴリ2" dataDxfId="22" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{A41F6F91-C980-4FDA-ABE7-D7A10483C780}" name="列1" dataDxfId="21" dataCellStyle="標準 2"/>
-    <tableColumn id="14" xr3:uid="{E0871752-EE33-4AED-9D38-9217736E3632}" name="状態" dataDxfId="20" dataCellStyle="標準 2"/>
-    <tableColumn id="5" xr3:uid="{B8E02EFF-8D47-4B8A-9D0D-89983E192A30}" name="共同受注通知書" dataDxfId="19" dataCellStyle="標準 2"/>
-    <tableColumn id="15" xr3:uid="{B188B094-0E8D-4988-81A9-B05DD2BB8958}" name="備考" dataDxfId="18" dataCellStyle="標準 2"/>
+    <tableColumn id="2" xr3:uid="{9BCD8C79-75B0-46CB-81EA-08210BDEDA51}" name="タイミング" dataDxfId="17" dataCellStyle="標準 2"/>
+    <tableColumn id="1" xr3:uid="{71C1CE89-BF1F-4D36-A869-3F9289BC65D3}" name="カテゴリ2" dataDxfId="16" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{A41F6F91-C980-4FDA-ABE7-D7A10483C780}" name="列1" dataDxfId="15" dataCellStyle="標準 2"/>
+    <tableColumn id="14" xr3:uid="{E0871752-EE33-4AED-9D38-9217736E3632}" name="状態" dataDxfId="14" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{B8E02EFF-8D47-4B8A-9D0D-89983E192A30}" name="共同受注通知書" dataDxfId="13" dataCellStyle="標準 2"/>
+    <tableColumn id="15" xr3:uid="{B188B094-0E8D-4988-81A9-B05DD2BB8958}" name="備考" dataDxfId="12" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72048007-8526-42DE-A339-9D8654C4D34C}" name="テーブル223" displayName="テーブル223" ref="A1:E31" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14" headerRowCellStyle="標準 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{72048007-8526-42DE-A339-9D8654C4D34C}" name="テーブル223" displayName="テーブル223" ref="A1:E31" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5" headerRowCellStyle="標準 2">
   <autoFilter ref="A1:E31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{D99A842B-D9B6-4C9F-9FA3-4DF6CE6BDD1C}" name="タイミング" dataDxfId="13" dataCellStyle="標準 2"/>
-    <tableColumn id="1" xr3:uid="{60F4688E-5497-471B-8448-F31F20035DD5}" name="カテゴリ2" dataDxfId="12" dataCellStyle="標準 2"/>
-    <tableColumn id="3" xr3:uid="{C969242E-1AB3-48E9-BA43-2BB0F4826FEC}" name="列1" dataDxfId="11" dataCellStyle="標準 2"/>
-    <tableColumn id="14" xr3:uid="{21D8CC79-387E-4056-8934-97B278BC68CD}" name="状態" dataDxfId="10" dataCellStyle="標準 2"/>
-    <tableColumn id="15" xr3:uid="{68902BC1-ED87-4EA6-941E-472D4B2FD768}" name="備考" dataDxfId="9" dataCellStyle="標準 2"/>
+    <tableColumn id="2" xr3:uid="{D99A842B-D9B6-4C9F-9FA3-4DF6CE6BDD1C}" name="タイミング" dataDxfId="4" dataCellStyle="標準 2"/>
+    <tableColumn id="1" xr3:uid="{60F4688E-5497-471B-8448-F31F20035DD5}" name="カテゴリ2" dataDxfId="3" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{C969242E-1AB3-48E9-BA43-2BB0F4826FEC}" name="列1" dataDxfId="2" dataCellStyle="標準 2"/>
+    <tableColumn id="14" xr3:uid="{21D8CC79-387E-4056-8934-97B278BC68CD}" name="状態" dataDxfId="1" dataCellStyle="標準 2"/>
+    <tableColumn id="15" xr3:uid="{68902BC1-ED87-4EA6-941E-472D4B2FD768}" name="備考" dataDxfId="0" dataCellStyle="標準 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3608,24 +3622,24 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="B3:B44 D3:G44 B45:G57">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>$E3="★"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>$E3="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="25" priority="6">
       <formula>$E3="○"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C44">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>$E3="★"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>$E3="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>$E3="○"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3646,10 +3660,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96AD35A-AD8A-4F44-9CB3-8A5AFF024648}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18.75"/>
@@ -3737,7 +3751,7 @@
         <v>83</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>181</v>
       </c>
       <c r="F5" s="2"/>
@@ -3752,7 +3766,7 @@
         <v>155</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>182</v>
       </c>
       <c r="F6" s="2"/>
@@ -3767,7 +3781,7 @@
         <v>84</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>183</v>
       </c>
       <c r="F7" s="2"/>
@@ -3812,7 +3826,7 @@
         <v>86</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="2"/>
@@ -3827,7 +3841,7 @@
         <v>87</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="7" t="s">
         <v>258</v>
       </c>
       <c r="F11" s="2"/>
@@ -3842,7 +3856,7 @@
         <v>88</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="7" t="s">
         <v>259</v>
       </c>
       <c r="F12" s="2"/>
@@ -4206,13 +4220,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="A2:E30">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>$D2="★"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>$D2="-"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>$D2="○"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4238,9 +4252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E53671-0CAF-43E5-ABF0-F0078D0F8398}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -4258,7 +4270,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>167</v>
       </c>
       <c r="B2" t="s">
@@ -4270,7 +4282,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>168</v>
       </c>
       <c r="B3" t="s">
@@ -4282,7 +4294,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>170</v>
       </c>
       <c r="B4" t="s">
@@ -4294,7 +4306,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>171</v>
       </c>
       <c r="B5" t="s">
@@ -4306,7 +4318,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>172</v>
       </c>
       <c r="B6" t="s">
@@ -4318,7 +4330,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>243</v>
       </c>
       <c r="B7" t="s">
@@ -4330,7 +4342,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>239</v>
       </c>
       <c r="B8" t="s">
@@ -4342,7 +4354,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>169</v>
       </c>
       <c r="B9" t="s">
@@ -4367,13 +4379,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E542800-9A9D-462F-B766-66624AB39BBF}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4389,18 +4401,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="24"/>
+      <c r="J1" s="23"/>
       <c r="K1" t="s">
         <v>176</v>
       </c>
@@ -4459,10 +4471,10 @@
       <c r="F3" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>152</v>
       </c>
       <c r="I3" s="16" t="str">
@@ -4501,10 +4513,10 @@
       <c r="F4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="16" t="s">
         <v>153</v>
       </c>
       <c r="I4" s="16" t="str">
@@ -4541,7 +4553,7 @@
       <c r="G5" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="16" t="s">
         <v>247</v>
       </c>
       <c r="I5" s="16" t="str">
@@ -4575,10 +4587,10 @@
       <c r="F6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="16" t="s">
         <v>242</v>
       </c>
       <c r="I6" s="16" t="str">
@@ -4612,7 +4624,7 @@
       <c r="F7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="16" t="s">
         <v>128</v>
       </c>
       <c r="H7" s="16" t="s">
@@ -4631,10 +4643,10 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>195</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -4649,7 +4661,7 @@
       <c r="F8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -4668,10 +4680,10 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>196</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -4686,7 +4698,7 @@
       <c r="F9" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="16" t="s">
         <v>166</v>
       </c>
       <c r="H9" s="16" t="s">
@@ -4723,7 +4735,7 @@
       <c r="F10" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="16" t="s">
         <v>123</v>
       </c>
       <c r="H10" s="16" t="s">
@@ -4760,7 +4772,7 @@
       <c r="F11" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="16" t="s">
         <v>126</v>
       </c>
       <c r="H11" s="16" t="s">
@@ -5152,7 +5164,7 @@
       <c r="A22" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>226</v>
       </c>
       <c r="C22" s="17" t="s">
@@ -5167,10 +5179,10 @@
       <c r="F22" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="25" t="s">
         <v>235</v>
       </c>
       <c r="I22" s="16" t="str">
@@ -5189,7 +5201,7 @@
       <c r="A23" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>227</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -5204,10 +5216,10 @@
       <c r="F23" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="25" t="s">
         <v>236</v>
       </c>
       <c r="I23" s="16" t="str">
@@ -5355,7 +5367,7 @@
       <c r="G27" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="22" t="s">
         <v>148</v>
       </c>
       <c r="I27" s="16" t="str">
@@ -5392,7 +5404,7 @@
       <c r="G28" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="21" t="s">
+      <c r="H28" s="20" t="s">
         <v>140</v>
       </c>
       <c r="I28" s="16" t="str">
@@ -5429,7 +5441,7 @@
       <c r="G29" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="20" t="s">
         <v>141</v>
       </c>
       <c r="I29" s="16" t="str">
@@ -5448,7 +5460,7 @@
       <c r="A30" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="16" t="s">
         <v>217</v>
       </c>
       <c r="C30" s="17" t="s">
@@ -5463,7 +5475,7 @@
       <c r="F30" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="16" t="s">
         <v>269</v>
       </c>
       <c r="H30" s="16" t="s">
@@ -5485,7 +5497,7 @@
       <c r="A31" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="16" t="s">
         <v>218</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -5500,7 +5512,7 @@
       <c r="F31" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="16" t="s">
         <v>268</v>
       </c>
       <c r="H31" s="16" t="s">
@@ -5522,7 +5534,7 @@
       <c r="A32" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="16" t="s">
         <v>219</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -5537,7 +5549,7 @@
       <c r="F32" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="16" t="s">
         <v>267</v>
       </c>
       <c r="H32" s="16" t="s">
@@ -5559,7 +5571,7 @@
       <c r="A33" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="16" t="s">
         <v>220</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -5574,7 +5586,7 @@
       <c r="F33" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="16" t="s">
         <v>266</v>
       </c>
       <c r="H33" s="16" t="s">
@@ -5596,7 +5608,7 @@
       <c r="A34" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="16" t="s">
         <v>221</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -5611,7 +5623,7 @@
       <c r="F34" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="16" t="s">
         <v>265</v>
       </c>
       <c r="H34" s="16" t="s">
@@ -5733,7 +5745,7 @@
       <c r="A39" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="16" t="s">
         <v>232</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -5748,10 +5760,10 @@
       <c r="F39" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="25" t="s">
         <v>233</v>
       </c>
       <c r="I39" s="16" t="str">
@@ -5764,6 +5776,21 @@
       </c>
       <c r="K39" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/プロジェクト参入前チェックリスト.xlsx
+++ b/プロジェクト参入前チェックリスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530B8E62-927E-40C4-856D-E9498C668118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416691CB-DC75-4FC2-8831-AA8369F2B61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="-120" windowWidth="26880" windowHeight="16440" xr2:uid="{4766EE0F-731E-4860-9E19-7E5345AFF867}"/>
   </bookViews>
@@ -22,14 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1402,7 +1394,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33203125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
